--- a/Results/RRS.xlsx
+++ b/Results/RRS.xlsx
@@ -1,49 +1,72 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27510"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jwk_2\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hendrik/git/AAU/artPlayer/Results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F12BA21F-E9DA-42B7-8F24-8770A7CA5B14}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{633BB6C1-ECC2-49EF-B5A9-D63334C17203}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="24120" windowHeight="14120"/>
   </bookViews>
   <sheets>
     <sheet name="Odense" sheetId="1" r:id="rId1"/>
     <sheet name="Uni Students" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>Participant</t>
   </si>
   <si>
     <t>RRS</t>
   </si>
+  <si>
+    <t>baseline</t>
+  </si>
+  <si>
+    <t>debrief</t>
+  </si>
+  <si>
+    <t>intervention</t>
+  </si>
+  <si>
+    <t>stressor</t>
+  </si>
+  <si>
+    <t>avg</t>
+  </si>
+  <si>
+    <t>stdev</t>
+  </si>
+  <si>
+    <t>conf interv</t>
+  </si>
+  <si>
+    <t>std error</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -135,31 +158,31 @@
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -214,11 +237,965 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Odense!$J$2:$J$5</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>1.306706927048785</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.972408469364864</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1.040015698468645</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.918442929618375</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Odense!$J$2:$J$5</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>1.306706927048785</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.972408469364864</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1.040015698468645</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.918442929618375</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>Odense!$A$2:$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>baseline</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>stressor</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>intervention</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>debrief</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Odense!$I$2:$I$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4.285714285714285</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.785714285714286</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.642857142857143</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.142857142857143</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1580690144"/>
+        <c:axId val="1580698272"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1580690144"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="t"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1580698272"/>
+        <c:crosses val="max"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1580698272"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="8.0"/>
+          <c:min val="1.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400"/>
+                  <a:t>Relaxation</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" baseline="0"/>
+                  <a:t> Rating Scale</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1400"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1580690144"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -517,26 +1494,259 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AC2D369-09A7-4AAA-B654-453C35FF25F2}">
-  <dimension ref="A1:H5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N25" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" customWidth="1"/>
+    <col min="2" max="2" width="8.83203125" style="3"/>
+    <col min="3" max="3" width="8.83203125" style="5"/>
+    <col min="4" max="4" width="8.83203125" style="7"/>
+    <col min="5" max="5" width="8.83203125" style="9"/>
+    <col min="6" max="6" width="8.83203125" style="11"/>
+    <col min="7" max="7" width="8.83203125" style="13"/>
+    <col min="8" max="8" width="8.83203125" style="15"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4">
+        <v>2</v>
+      </c>
+      <c r="D1" s="6">
+        <v>3</v>
+      </c>
+      <c r="E1" s="8">
+        <v>4</v>
+      </c>
+      <c r="F1" s="10">
+        <v>5</v>
+      </c>
+      <c r="G1" s="12">
+        <v>6</v>
+      </c>
+      <c r="H1" s="14">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="3">
+        <v>4</v>
+      </c>
+      <c r="C2" s="16">
+        <v>5.5</v>
+      </c>
+      <c r="D2" s="7">
+        <v>2.5</v>
+      </c>
+      <c r="E2" s="9">
+        <v>2</v>
+      </c>
+      <c r="F2" s="11">
+        <v>7</v>
+      </c>
+      <c r="G2" s="13">
+        <v>5</v>
+      </c>
+      <c r="H2" s="15">
+        <v>4</v>
+      </c>
+      <c r="I2">
+        <f>AVERAGE(B2:H2)</f>
+        <v>4.2857142857142856</v>
+      </c>
+      <c r="J2">
+        <f>2*L2</f>
+        <v>1.3067069270487846</v>
+      </c>
+      <c r="K2">
+        <f>STDEV(B2:H2)</f>
+        <v>1.7286107827082522</v>
+      </c>
+      <c r="L2">
+        <f>STDEV(B2:H2)/SQRT(7)</f>
+        <v>0.65335346352439228</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="3">
+        <v>4</v>
+      </c>
+      <c r="C3" s="5">
+        <v>4</v>
+      </c>
+      <c r="D3" s="7">
+        <v>2.5</v>
+      </c>
+      <c r="E3" s="9">
+        <v>2</v>
+      </c>
+      <c r="F3" s="11">
+        <v>6</v>
+      </c>
+      <c r="G3" s="13">
+        <v>4</v>
+      </c>
+      <c r="H3" s="15">
+        <v>4</v>
+      </c>
+      <c r="I3">
+        <f>AVERAGE(B3:H3)</f>
+        <v>3.7857142857142856</v>
+      </c>
+      <c r="J3">
+        <f>2*L3</f>
+        <v>0.97240846936486369</v>
+      </c>
+      <c r="K3">
+        <f>STDEV(B3:H3)</f>
+        <v>1.2863754913562</v>
+      </c>
+      <c r="L3">
+        <f>STDEV(B3:H3)/SQRT(7)</f>
+        <v>0.48620423468243185</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="3">
+        <v>6</v>
+      </c>
+      <c r="C4" s="5">
+        <v>6</v>
+      </c>
+      <c r="D4" s="7">
+        <v>3.5</v>
+      </c>
+      <c r="E4" s="9">
+        <v>6</v>
+      </c>
+      <c r="F4" s="11">
+        <v>7</v>
+      </c>
+      <c r="G4" s="13">
+        <v>7</v>
+      </c>
+      <c r="H4" s="15">
+        <v>4</v>
+      </c>
+      <c r="I4">
+        <f>AVERAGE(B4:H4)</f>
+        <v>5.6428571428571432</v>
+      </c>
+      <c r="J4">
+        <f>2*L4</f>
+        <v>1.0400156984686455</v>
+      </c>
+      <c r="K4">
+        <f>STDEV(B4:H4)</f>
+        <v>1.3758114488755875</v>
+      </c>
+      <c r="L4">
+        <f>STDEV(B4:H4)/SQRT(7)</f>
+        <v>0.52000784923432275</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3">
+        <v>7</v>
+      </c>
+      <c r="C5" s="5">
+        <v>6</v>
+      </c>
+      <c r="D5" s="7">
+        <v>7</v>
+      </c>
+      <c r="E5" s="9">
+        <v>5</v>
+      </c>
+      <c r="F5" s="11">
+        <v>7</v>
+      </c>
+      <c r="G5" s="13">
+        <v>7</v>
+      </c>
+      <c r="H5" s="15">
+        <v>4</v>
+      </c>
+      <c r="I5">
+        <f>AVERAGE(B5:H5)</f>
+        <v>6.1428571428571432</v>
+      </c>
+      <c r="J5">
+        <f>2*L5</f>
+        <v>0.91844292961837537</v>
+      </c>
+      <c r="K5">
+        <f>STDEV(B5:H5)</f>
+        <v>1.2149857925879102</v>
+      </c>
+      <c r="L5">
+        <f>STDEV(B5:H5)/SQRT(7)</f>
+        <v>0.45922146480918768</v>
+      </c>
+    </row>
+    <row r="25" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N25" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="3"/>
-    <col min="3" max="3" width="9.140625" style="5"/>
-    <col min="4" max="4" width="9.140625" style="7"/>
-    <col min="5" max="5" width="9.140625" style="9"/>
-    <col min="6" max="6" width="9.140625" style="11"/>
-    <col min="7" max="7" width="9.140625" style="13"/>
-    <col min="8" max="8" width="9.140625" style="15"/>
+    <col min="1" max="1" width="11.5" customWidth="1"/>
+    <col min="2" max="2" width="8.83203125" style="3"/>
+    <col min="3" max="3" width="8.83203125" style="5"/>
+    <col min="4" max="4" width="8.83203125" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -549,175 +1759,33 @@
       <c r="D1" s="6">
         <v>3</v>
       </c>
-      <c r="E1" s="8">
-        <v>4</v>
-      </c>
-      <c r="F1" s="10">
-        <v>5</v>
-      </c>
-      <c r="G1" s="12">
-        <v>6</v>
-      </c>
-      <c r="H1" s="14">
-        <v>7</v>
-      </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="3">
+        <v>5</v>
+      </c>
+      <c r="C2" s="5">
+        <v>2</v>
+      </c>
+      <c r="D2" s="7">
         <v>4</v>
       </c>
-      <c r="C2" s="16">
-        <v>5.5</v>
-      </c>
-      <c r="D2" s="7">
-        <v>2.5</v>
-      </c>
-      <c r="E2" s="9">
-        <v>2</v>
-      </c>
-      <c r="F2" s="11">
-        <v>7</v>
-      </c>
-      <c r="G2" s="13">
-        <v>5</v>
-      </c>
-      <c r="H2" s="15">
-        <v>4</v>
-      </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B3" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C3" s="5">
         <v>4</v>
       </c>
       <c r="D3" s="7">
-        <v>2.5</v>
-      </c>
-      <c r="E3" s="9">
-        <v>2</v>
-      </c>
-      <c r="F3" s="11">
-        <v>6</v>
-      </c>
-      <c r="G3" s="13">
         <v>4</v>
       </c>
-      <c r="H3" s="15">
-        <v>4</v>
-      </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="3">
-        <v>6</v>
-      </c>
-      <c r="C4" s="5">
-        <v>6</v>
-      </c>
-      <c r="D4" s="7">
-        <v>3.5</v>
-      </c>
-      <c r="E4" s="9">
-        <v>6</v>
-      </c>
-      <c r="F4" s="11">
-        <v>7</v>
-      </c>
-      <c r="G4" s="13">
-        <v>7</v>
-      </c>
-      <c r="H4" s="15">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B5" s="3">
-        <v>7</v>
-      </c>
-      <c r="C5" s="5">
-        <v>6</v>
-      </c>
-      <c r="D5" s="7">
-        <v>7</v>
-      </c>
-      <c r="E5" s="9">
-        <v>5</v>
-      </c>
-      <c r="F5" s="11">
-        <v>7</v>
-      </c>
-      <c r="G5" s="13">
-        <v>7</v>
-      </c>
-      <c r="H5" s="15">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27409926-1F55-469A-A7A7-5D8055AED47B}">
-  <dimension ref="A1:D4"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="11.42578125" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="3"/>
-    <col min="3" max="3" width="9.140625" style="5"/>
-    <col min="4" max="4" width="9.140625" style="7"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2">
-        <v>1</v>
-      </c>
-      <c r="C1" s="4">
-        <v>2</v>
-      </c>
-      <c r="D1" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3">
-        <v>5</v>
-      </c>
-      <c r="C2" s="5">
-        <v>2</v>
-      </c>
-      <c r="D2" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B3" s="3">
-        <v>6</v>
-      </c>
-      <c r="C3" s="5">
-        <v>4</v>
-      </c>
-      <c r="D3" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B4" s="3">
         <v>6</v>
       </c>
